--- a/LLM-eval/file/suite/single_function_8params.xlsx
+++ b/LLM-eval/file/suite/single_function_8params.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\i-eval\LLM-eval\file\suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\i-eval\i-eval.git\LLM-eval\file\suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE5CD6-6725-43E0-9B67-B660D0D6139E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC1B50-5C34-4F59-BDCC-112B3D0B3EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,15 +221,14 @@
     <t>将设备ID为AC049的电源状态设置为on，模式设为制冷，温度设为19度，风速设为high，开启摆风功能，开启自诊断功能，开启UV杀菌</t>
   </si>
   <si>
-    <t>{"completionTokens":"100","fcCount":1,"fcInfo":{"apiair-conditionerupdate_POST":8}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>{"fcCount":1,"fcInfo":{"apiair-conditionerupdate_POST":8}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,13 +257,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -582,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:BB86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
